--- a/medicine/Psychotrope/Ousmane_Conté/Ousmane_Conté.xlsx
+++ b/medicine/Psychotrope/Ousmane_Conté/Ousmane_Conté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ousmane_Cont%C3%A9</t>
+          <t>Ousmane_Conté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ousmane Conté, mort le 25 mars 2020 à Conakry, est le fils aîné du président Lansana Conté[1],[2].
-Il a été arrêté par l'armée guinéenne deux mois après la mort de son père à la suite du coup d'État, pour trafic de drogue présumé. En juin 2010, il a été désigné par les États-Unis comme un « baron de la drogue »[3] et a admis en direct à la télévision son implication dans le trafic, mais a déclaré qu'il n'était pas un « chef de file ». Le 16 juillet 2010, il a été libéré sous caution après 16 mois d'emprisonnement[4].
-Il est décède le 25 mars 2020 à l'Hôpital de l'amitié sino-guinéenne[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ousmane Conté, mort le 25 mars 2020 à Conakry, est le fils aîné du président Lansana Conté,.
+Il a été arrêté par l'armée guinéenne deux mois après la mort de son père à la suite du coup d'État, pour trafic de drogue présumé. En juin 2010, il a été désigné par les États-Unis comme un « baron de la drogue » et a admis en direct à la télévision son implication dans le trafic, mais a déclaré qu'il n'était pas un « chef de file ». Le 16 juillet 2010, il a été libéré sous caution après 16 mois d'emprisonnement.
+Il est décède le 25 mars 2020 à l'Hôpital de l'amitié sino-guinéenne.
 </t>
         </is>
       </c>
